--- a/Unity/Assets/Config/Excel/OfflineIncomeConfig.xlsx
+++ b/Unity/Assets/Config/Excel/OfflineIncomeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18705" windowHeight="10455"/>
+    <workbookView windowWidth="25350" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="OfflineIncomeConfigProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>##var</t>
   </si>
@@ -285,6 +285,36 @@
   </si>
   <si>
     <t>70级离线奖励配置信息</t>
+  </si>
+  <si>
+    <t>71级离线奖励配置信息</t>
+  </si>
+  <si>
+    <t>72级离线奖励配置信息</t>
+  </si>
+  <si>
+    <t>73级离线奖励配置信息</t>
+  </si>
+  <si>
+    <t>74级离线奖励配置信息</t>
+  </si>
+  <si>
+    <t>75级离线奖励配置信息</t>
+  </si>
+  <si>
+    <t>76级离线奖励配置信息</t>
+  </si>
+  <si>
+    <t>77级离线奖励配置信息</t>
+  </si>
+  <si>
+    <t>78级离线奖励配置信息</t>
+  </si>
+  <si>
+    <t>79级离线奖励配置信息</t>
+  </si>
+  <si>
+    <t>80级离线奖励配置信息</t>
   </si>
 </sst>
 </file>
@@ -1284,10 +1314,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
@@ -2979,6 +3009,206 @@
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
     </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="8">
+        <v>71</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" s="5">
+        <f t="shared" ref="D74:D83" si="11">B74*10</f>
+        <v>710</v>
+      </c>
+      <c r="E74" s="5">
+        <f t="shared" ref="E74:E83" si="12">B74*100</f>
+        <v>7100</v>
+      </c>
+      <c r="F74" s="5">
+        <f t="shared" ref="F74:F83" si="13">60*60*24</f>
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="8">
+        <v>72</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" s="5">
+        <f t="shared" si="11"/>
+        <v>720</v>
+      </c>
+      <c r="E75" s="5">
+        <f t="shared" si="12"/>
+        <v>7200</v>
+      </c>
+      <c r="F75" s="5">
+        <f t="shared" si="13"/>
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="8">
+        <v>73</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" s="5">
+        <f t="shared" si="11"/>
+        <v>730</v>
+      </c>
+      <c r="E76" s="5">
+        <f t="shared" si="12"/>
+        <v>7300</v>
+      </c>
+      <c r="F76" s="5">
+        <f t="shared" si="13"/>
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="8">
+        <v>74</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" s="5">
+        <f t="shared" si="11"/>
+        <v>740</v>
+      </c>
+      <c r="E77" s="5">
+        <f t="shared" si="12"/>
+        <v>7400</v>
+      </c>
+      <c r="F77" s="5">
+        <f t="shared" si="13"/>
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="8">
+        <v>75</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" s="5">
+        <f t="shared" si="11"/>
+        <v>750</v>
+      </c>
+      <c r="E78" s="5">
+        <f t="shared" si="12"/>
+        <v>7500</v>
+      </c>
+      <c r="F78" s="5">
+        <f t="shared" si="13"/>
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="8">
+        <v>76</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="5">
+        <f t="shared" si="11"/>
+        <v>760</v>
+      </c>
+      <c r="E79" s="5">
+        <f t="shared" si="12"/>
+        <v>7600</v>
+      </c>
+      <c r="F79" s="5">
+        <f t="shared" si="13"/>
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="8">
+        <v>77</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" s="5">
+        <f t="shared" si="11"/>
+        <v>770</v>
+      </c>
+      <c r="E80" s="5">
+        <f t="shared" si="12"/>
+        <v>7700</v>
+      </c>
+      <c r="F80" s="5">
+        <f t="shared" si="13"/>
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="8">
+        <v>78</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" s="5">
+        <f t="shared" si="11"/>
+        <v>780</v>
+      </c>
+      <c r="E81" s="5">
+        <f t="shared" si="12"/>
+        <v>7800</v>
+      </c>
+      <c r="F81" s="5">
+        <f t="shared" si="13"/>
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="8">
+        <v>79</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D82" s="5">
+        <f t="shared" si="11"/>
+        <v>790</v>
+      </c>
+      <c r="E82" s="5">
+        <f t="shared" si="12"/>
+        <v>7900</v>
+      </c>
+      <c r="F82" s="5">
+        <f t="shared" si="13"/>
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="8">
+        <v>80</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" s="5">
+        <f t="shared" si="11"/>
+        <v>800</v>
+      </c>
+      <c r="E83" s="5">
+        <f t="shared" si="12"/>
+        <v>8000</v>
+      </c>
+      <c r="F83" s="5">
+        <f t="shared" si="13"/>
+        <v>86400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
